--- a/LIQ_20197_1_16.xlsx
+++ b/LIQ_20197_1_16.xlsx
@@ -169,7 +169,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -193,7 +193,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="3:4">
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -241,7 +241,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0</v>
+        <v>20296</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -265,7 +265,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>1510000</v>
+        <v>1590000</v>
       </c>
     </row>
     <row r="24" spans="3:4">
@@ -289,7 +289,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="32" spans="4:4">
